--- a/IMS2/App_Data/Roles.xlsx
+++ b/IMS2/App_Data/Roles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,90 @@
   </si>
   <si>
     <t>查看全院指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核全院指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理人员信息及创建新人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改全院指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如指标、指标组、科室、科室类别等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能查看所有科室的报表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能查看该用户所在科室的报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改查看该用户所在科室的指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看该用户所在科室的指标值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有科室的指标值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有以上所有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有以上所有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProvidingDepartmentIndicatorController</t>
+  </si>
+  <si>
+    <t>ShowDepartmentIndicatorValueController</t>
+  </si>
+  <si>
+    <t>ReportersController</t>
+  </si>
+  <si>
+    <t>ManageUserController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchDepartmentIndicatorController</t>
+  </si>
+  <si>
+    <t>ProvidingDepartmentIndicatorController（Create）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,70 +489,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/IMS2/App_Data/Roles.xlsx
+++ b/IMS2/App_Data/Roles.xlsx
@@ -23,123 +23,123 @@
     <t>修改全院指标值</t>
   </si>
   <si>
+    <t>修改全院人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全院报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看科室报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看科室指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全院指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理人员信息及创建新人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改全院指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如指标、指标组、科室、科室类别等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能查看所有科室的报表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能查看该用户所在科室的报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改查看该用户所在科室的指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看该用户所在科室的指标值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有科室的指标值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有以上所有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加指标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有以上所有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProvidingDepartmentIndicatorController</t>
+  </si>
+  <si>
+    <t>ShowDepartmentIndicatorValueController</t>
+  </si>
+  <si>
+    <t>ReportersController</t>
+  </si>
+  <si>
+    <t>ManageUserController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchDepartmentIndicatorController</t>
+  </si>
+  <si>
+    <t>ProvidingDepartmentIndicatorController（Create）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>创建指标值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改全院人员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理基础数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看全院报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看科室报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改科室指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看科室指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看全院指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核全院指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理人员信息及创建新人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改全院指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如指标、指标组、科室、科室类别等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能查看所有科室的报表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能查看该用户所在科室的报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改查看该用户所在科室的指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看该用户所在科室的指标值信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看所有科室的指标值信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有以上所有权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加指标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有以上所有权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProvidingDepartmentIndicatorController</t>
-  </si>
-  <si>
-    <t>ShowDepartmentIndicatorValueController</t>
-  </si>
-  <si>
-    <t>ReportersController</t>
-  </si>
-  <si>
-    <t>ManageUserController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchDepartmentIndicatorController</t>
-  </si>
-  <si>
-    <t>ProvidingDepartmentIndicatorController（Create）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,32 +506,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -539,100 +539,100 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
